--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_120_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_120_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[5.662609610508147, 6.123517022415484]</t>
+          <t>[5.661904610733761, 6.12422202218987]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.16745736938150912, 0.4479073855189224]</t>
+          <t>[0.16754699198536827, 0.44781776291506326]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>6.1766133450325e-05</v>
+        <v>6.120626615446767e-05</v>
       </c>
       <c r="V2" t="n">
-        <v>6.1766133450325e-05</v>
+        <v>6.120626615446767e-05</v>
       </c>
       <c r="W2" t="n">
         <v>13.19615615615655</v>
